--- a/data/trans_dic/P55$privada-Provincia-trans_dic.xlsx
+++ b/data/trans_dic/P55$privada-Provincia-trans_dic.xlsx
@@ -697,7 +697,7 @@
         <v>0.0692112788684061</v>
       </c>
       <c r="N4" s="5" t="n">
-        <v>0.09856529736321785</v>
+        <v>0.09856529736321787</v>
       </c>
     </row>
     <row r="5">
@@ -715,7 +715,7 @@
       </c>
       <c r="E5" s="5" t="inlineStr"/>
       <c r="F5" s="5" t="n">
-        <v>0.02311261361631015</v>
+        <v>0.02323630447209776</v>
       </c>
       <c r="G5" s="5" t="n">
         <v>0</v>
@@ -727,19 +727,19 @@
         <v>0</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.05085596797355233</v>
+        <v>0.04963868046547201</v>
       </c>
       <c r="K5" s="5" t="n">
         <v>0</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>0.02003159761097946</v>
+        <v>0.02017840488185464</v>
       </c>
       <c r="M5" s="5" t="n">
         <v>0</v>
       </c>
       <c r="N5" s="5" t="n">
-        <v>0.05053896218857815</v>
+        <v>0.04942646650532006</v>
       </c>
     </row>
     <row r="6">
@@ -750,38 +750,38 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.4347386518641005</v>
+        <v>0.4204651439552003</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.4856843704688127</v>
+        <v>0.4664236225723006</v>
       </c>
       <c r="E6" s="5" t="inlineStr"/>
       <c r="F6" s="5" t="n">
-        <v>0.1889146026086205</v>
+        <v>0.1958786955069551</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.4727887728456507</v>
+        <v>0.4741108741430314</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.1834976003624354</v>
+        <v>0.1860168921908765</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.2530573917915798</v>
+        <v>0.2772872723304671</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.2206440754692489</v>
+        <v>0.2201220776125877</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.3345730186146672</v>
+        <v>0.3180547043775622</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>0.1909782078297599</v>
+        <v>0.1793914720593872</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>0.2157194385577875</v>
+        <v>0.2226564465762327</v>
       </c>
       <c r="N6" s="5" t="n">
-        <v>0.1775790577657823</v>
+        <v>0.1738636617976441</v>
       </c>
     </row>
     <row r="7">
@@ -844,34 +844,34 @@
         <v>0</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.06806532643969966</v>
+        <v>0.07971635486237034</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.1132956967962193</v>
+        <v>0.1123612978300685</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.03891283062987453</v>
+        <v>0.03970782346750019</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.07092888137845986</v>
+        <v>0.054704073482786</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.06206828199119298</v>
+        <v>0.05598621531076142</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.1031344388400427</v>
+        <v>0.1072713185482134</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.02278835624090804</v>
+        <v>0.02362062207363536</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>0.06535000884814811</v>
+        <v>0.07341255825707034</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>0.09909894408935914</v>
+        <v>0.09077862412148628</v>
       </c>
       <c r="N8" s="5" t="n">
-        <v>0.130591031574602</v>
+        <v>0.1297447208837587</v>
       </c>
     </row>
     <row r="9">
@@ -883,37 +883,37 @@
       </c>
       <c r="C9" s="5" t="inlineStr"/>
       <c r="D9" s="5" t="n">
-        <v>0.2665777369722804</v>
+        <v>0.289382015660357</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.5731952616959628</v>
+        <v>0.5897059906124648</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.5423368288898898</v>
+        <v>0.5232738330175704</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.3362707266775231</v>
+        <v>0.3321801180887217</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.3140234007976255</v>
+        <v>0.3403979249477704</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.3385796726733742</v>
+        <v>0.3323872323956536</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.2589087591173194</v>
+        <v>0.2535425457517685</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.2088671124896781</v>
+        <v>0.2072942138755803</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>0.2669186639347393</v>
+        <v>0.2765559084076312</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>0.3359560458381644</v>
+        <v>0.3203317655300352</v>
       </c>
       <c r="N9" s="5" t="n">
-        <v>0.2844659551759026</v>
+        <v>0.2847435464066891</v>
       </c>
     </row>
     <row r="10">
@@ -975,37 +975,37 @@
         <v>0</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.06312799238711303</v>
+        <v>0.0667594478306522</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.05763947154976905</v>
+        <v>0.05675312244898862</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.04746209127150423</v>
+        <v>0.06479909172015487</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.166077698496903</v>
+        <v>0.1820251667239698</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.04201215571333408</v>
+        <v>0.08094839621836798</v>
       </c>
       <c r="I11" s="5" t="n">
         <v>0</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.1035265181869523</v>
+        <v>0.111797895515788</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.156138217625506</v>
+        <v>0.1528038416364538</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>0.07841186495473912</v>
+        <v>0.07809394943946159</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>0.07802453910652002</v>
+        <v>0.0751440136360373</v>
       </c>
       <c r="N11" s="5" t="n">
-        <v>0.1083732149730995</v>
+        <v>0.1106284365890076</v>
       </c>
     </row>
     <row r="12">
@@ -1016,40 +1016,40 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.5412096378077271</v>
+        <v>0.5339652418611263</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.4705707953164401</v>
+        <v>0.4717014253851914</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.5068681413848718</v>
+        <v>0.5112298924125733</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.2739251482553763</v>
+        <v>0.2746066554100089</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.4960551041675021</v>
+        <v>0.4972289859740019</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.3644027604801837</v>
+        <v>0.3708896964435019</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.4440805805467705</v>
+        <v>0.3816153219203894</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.2705984169701987</v>
+        <v>0.2784288775037822</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.4329174711609609</v>
+        <v>0.4371939968147748</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>0.322734601196014</v>
+        <v>0.3250635693004335</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>0.3586837378987726</v>
+        <v>0.3705444151447229</v>
       </c>
       <c r="N12" s="5" t="n">
-        <v>0.2376666665977794</v>
+        <v>0.2438036266977942</v>
       </c>
     </row>
     <row r="13">
@@ -1097,7 +1097,7 @@
         <v>0.2047313675030351</v>
       </c>
       <c r="N13" s="5" t="n">
-        <v>0.2284510265482767</v>
+        <v>0.2284510265482766</v>
       </c>
     </row>
     <row r="14">
@@ -1114,34 +1114,34 @@
         <v>0</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.0549481354686845</v>
+        <v>0.05505333533818977</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.07765190328129411</v>
+        <v>0.1033305417116352</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.1309404686171634</v>
+        <v>0.1216602897650107</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.02663011576710425</v>
+        <v>0.02576613017136861</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.07339707928508532</v>
+        <v>0.07399729553069191</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.1489358672612761</v>
+        <v>0.1558861188155017</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.1039201862370599</v>
+        <v>0.1006847580917388</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>0.0508021874288458</v>
+        <v>0.05176074062013605</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>0.09643289981715128</v>
+        <v>0.09466021241195484</v>
       </c>
       <c r="N14" s="5" t="n">
-        <v>0.1624093681260989</v>
+        <v>0.1590011388239055</v>
       </c>
     </row>
     <row r="15">
@@ -1152,40 +1152,40 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.2769548982246984</v>
+        <v>0.2619748476851002</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.3480445094154947</v>
+        <v>0.3411232921937052</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.4404294517890406</v>
+        <v>0.4331308803625097</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.4100066085779845</v>
+        <v>0.4055472124084014</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.4482538358891852</v>
+        <v>0.4136571652861917</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.2377877208866087</v>
+        <v>0.2298680465224186</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.4200390844467968</v>
+        <v>0.4596627386298862</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.3259492733642441</v>
+        <v>0.326790964346256</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.3286288348314425</v>
+        <v>0.3373900513085084</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>0.2148066464151402</v>
+        <v>0.2159090639636024</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>0.3638394270305753</v>
+        <v>0.3679743160437883</v>
       </c>
       <c r="N15" s="5" t="n">
-        <v>0.3160019154959612</v>
+        <v>0.3059436613152743</v>
       </c>
     </row>
     <row r="16">
@@ -1221,7 +1221,7 @@
         <v>0.1438342589712442</v>
       </c>
       <c r="J16" s="5" t="n">
-        <v>0.1451172961391173</v>
+        <v>0.1451172961391174</v>
       </c>
       <c r="K16" s="5" t="n">
         <v>0.08230464804963203</v>
@@ -1257,25 +1257,25 @@
         <v>0</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>0.08136300285579808</v>
+        <v>0.07808089047070285</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>0.04450649989562768</v>
+        <v>0.04360093358308747</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>0.05535659667638388</v>
+        <v>0.05240436135471545</v>
       </c>
       <c r="K17" s="5" t="n">
         <v>0</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>0.06293216648106574</v>
+        <v>0.0867245283968415</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>0.03769960671516952</v>
+        <v>0.03765212519592198</v>
       </c>
       <c r="N17" s="5" t="n">
-        <v>0.06461965883180285</v>
+        <v>0.06863713571168913</v>
       </c>
     </row>
     <row r="18">
@@ -1286,38 +1286,38 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.4509247199575722</v>
+        <v>0.4568735289719674</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.6101938227799405</v>
+        <v>0.6254117222755637</v>
       </c>
       <c r="E18" s="5" t="inlineStr"/>
       <c r="F18" s="5" t="n">
-        <v>0.379936453720719</v>
+        <v>0.398607395965948</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.2885240009761385</v>
+        <v>0.3432107830391238</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>0.4051581824997644</v>
+        <v>0.4127195313060629</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>0.3436079130743002</v>
+        <v>0.3404531495752248</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>0.2771380406386784</v>
+        <v>0.2837540402610765</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>0.2613760728973265</v>
+        <v>0.2664450442461759</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>0.3444463424786162</v>
+        <v>0.3461440375837214</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>0.2793583674665967</v>
+        <v>0.3072565502243131</v>
       </c>
       <c r="N18" s="5" t="n">
-        <v>0.2566051468187034</v>
+        <v>0.2444308686368561</v>
       </c>
     </row>
     <row r="19">
@@ -1376,7 +1376,7 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>0.05280785596217152</v>
+        <v>0.1032431284350034</v>
       </c>
       <c r="D20" s="5" t="n">
         <v>0</v>
@@ -1385,31 +1385,31 @@
         <v>0</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>0.1055826343449129</v>
+        <v>0.1026901650095826</v>
       </c>
       <c r="G20" s="5" t="n">
         <v>0</v>
       </c>
       <c r="H20" s="5" t="n">
-        <v>0.05007883690610621</v>
+        <v>0.05082881644251926</v>
       </c>
       <c r="I20" s="5" t="n">
         <v>0</v>
       </c>
       <c r="J20" s="5" t="n">
-        <v>0.0762989337354327</v>
+        <v>0.08215160296882723</v>
       </c>
       <c r="K20" s="5" t="n">
-        <v>0.0613114141405882</v>
+        <v>0.06172484807272889</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>0.0548636627397384</v>
+        <v>0.0546467712662783</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>0.03579491537672592</v>
+        <v>0.04449820410871671</v>
       </c>
       <c r="N20" s="5" t="n">
-        <v>0.1047497907533824</v>
+        <v>0.1134664614374483</v>
       </c>
     </row>
     <row r="21">
@@ -1420,40 +1420,40 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>0.4269867213854071</v>
+        <v>0.4252997269702473</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>0.3581013505591734</v>
+        <v>0.3578338300586464</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>0.3347380968887571</v>
+        <v>0.3355777516720256</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>0.3110929665020762</v>
+        <v>0.3146239085360778</v>
       </c>
       <c r="G21" s="5" t="n">
-        <v>0.2434713954939342</v>
+        <v>0.2481846673196477</v>
       </c>
       <c r="H21" s="5" t="n">
-        <v>0.4005607888949654</v>
+        <v>0.4061599894711651</v>
       </c>
       <c r="I21" s="5" t="n">
-        <v>0.4096736421947392</v>
+        <v>0.3899936740132532</v>
       </c>
       <c r="J21" s="5" t="n">
-        <v>0.2342147022157565</v>
+        <v>0.2337070776556014</v>
       </c>
       <c r="K21" s="5" t="n">
-        <v>0.2681236269467045</v>
+        <v>0.2524815924438499</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>0.3205713117963593</v>
+        <v>0.3000487053728241</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>0.3067345016392216</v>
+        <v>0.3024785828732979</v>
       </c>
       <c r="N21" s="5" t="n">
-        <v>0.2290966197190946</v>
+        <v>0.2369673256046664</v>
       </c>
     </row>
     <row r="22">
@@ -1515,37 +1515,37 @@
         <v>0</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.07121129173452229</v>
+        <v>0.07087341175314228</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.06481860068975734</v>
+        <v>0.06549495872814358</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>0.03190748437812626</v>
+        <v>0</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>0.2568716456082727</v>
+        <v>0.2416897652360057</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>0.1373520981397011</v>
+        <v>0.1335885995110116</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>0.08111278881811944</v>
+        <v>0.0808086590486916</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>0.1037958095064132</v>
+        <v>0.1013168082515444</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>0.1912555232741428</v>
+        <v>0.1888003405022539</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>0.1502383874630769</v>
+        <v>0.141936988838499</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>0.09447686875831622</v>
+        <v>0.08986368575960367</v>
       </c>
       <c r="N23" s="5" t="n">
-        <v>0.09124466160260497</v>
+        <v>0.08614012357689352</v>
       </c>
     </row>
     <row r="24">
@@ -1556,40 +1556,40 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>0.2909989545230441</v>
+        <v>0.2911864362678609</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.3891198651489568</v>
+        <v>0.3887019597843803</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.3502873143005674</v>
+        <v>0.3541203723911254</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>0.2816084395258724</v>
+        <v>0.2649681391953404</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>0.5753397908983665</v>
+        <v>0.5626142353640937</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>0.4136397575964202</v>
+        <v>0.4282433927772146</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>0.3009310990446451</v>
+        <v>0.2869923726660755</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>0.2806756555501996</v>
+        <v>0.2719497620999821</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>0.4381437214426908</v>
+        <v>0.4204075576919327</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>0.3559723389845902</v>
+        <v>0.3649636599378976</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>0.2675117053353817</v>
+        <v>0.2622777633782165</v>
       </c>
       <c r="N24" s="5" t="n">
-        <v>0.2276184169790929</v>
+        <v>0.2248186715534032</v>
       </c>
     </row>
     <row r="25">
@@ -1625,7 +1625,7 @@
         <v>0.167473922500436</v>
       </c>
       <c r="J25" s="5" t="n">
-        <v>0.2361490653735739</v>
+        <v>0.2361490653735738</v>
       </c>
       <c r="K25" s="5" t="n">
         <v>0.1656541170936631</v>
@@ -1648,7 +1648,7 @@
         </is>
       </c>
       <c r="C26" s="5" t="n">
-        <v>0.05904083378050624</v>
+        <v>0.06543029187180859</v>
       </c>
       <c r="D26" s="5" t="n">
         <v>0</v>
@@ -1657,31 +1657,31 @@
         <v>0</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>0.1010082052824649</v>
+        <v>0.06906976959329093</v>
       </c>
       <c r="G26" s="5" t="n">
-        <v>0.07226311762112494</v>
+        <v>0.07295018036908728</v>
       </c>
       <c r="H26" s="5" t="n">
-        <v>0.06882214874783146</v>
+        <v>0.07079695767583455</v>
       </c>
       <c r="I26" s="5" t="n">
-        <v>0.06614942547470319</v>
+        <v>0.06532685153968545</v>
       </c>
       <c r="J26" s="5" t="n">
-        <v>0.1572646478515797</v>
+        <v>0.1635312118911595</v>
       </c>
       <c r="K26" s="5" t="n">
-        <v>0.09238722285872303</v>
+        <v>0.09106513592532516</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>0.06611845104908876</v>
+        <v>0.06565230003696511</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>0.06740253987240738</v>
+        <v>0.06640014641279281</v>
       </c>
       <c r="N26" s="5" t="n">
-        <v>0.1578394373564463</v>
+        <v>0.1681061664324143</v>
       </c>
     </row>
     <row r="27">
@@ -1692,40 +1692,40 @@
         </is>
       </c>
       <c r="C27" s="5" t="n">
-        <v>0.3150987111381496</v>
+        <v>0.3339388592507549</v>
       </c>
       <c r="D27" s="5" t="n">
-        <v>0.3334539687272112</v>
+        <v>0.3010690386752305</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>0.2160585505197737</v>
+        <v>0.217744867135064</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>0.3899569968982378</v>
+        <v>0.3836178037255525</v>
       </c>
       <c r="G27" s="5" t="n">
-        <v>0.3113085225375163</v>
+        <v>0.3049758176641367</v>
       </c>
       <c r="H27" s="5" t="n">
-        <v>0.2888179055157196</v>
+        <v>0.2865880561886969</v>
       </c>
       <c r="I27" s="5" t="n">
-        <v>0.3045129888915272</v>
+        <v>0.3142821989613514</v>
       </c>
       <c r="J27" s="5" t="n">
-        <v>0.3380812282474639</v>
+        <v>0.3338699298612747</v>
       </c>
       <c r="K27" s="5" t="n">
-        <v>0.2625289109486454</v>
+        <v>0.2730309153795546</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>0.2529029836690298</v>
+        <v>0.2472915895239823</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>0.2518536168140132</v>
+        <v>0.2400384966086463</v>
       </c>
       <c r="N27" s="5" t="n">
-        <v>0.3117188581977537</v>
+        <v>0.311217482598695</v>
       </c>
     </row>
     <row r="28">
@@ -1761,7 +1761,7 @@
         <v>0.1588485796188314</v>
       </c>
       <c r="J28" s="5" t="n">
-        <v>0.1835715366142479</v>
+        <v>0.183571536614248</v>
       </c>
       <c r="K28" s="5" t="n">
         <v>0.1829482942270295</v>
@@ -1784,40 +1784,40 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>0.0682851792858145</v>
+        <v>0.07104578713310664</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>0.08412915520851511</v>
+        <v>0.08828850016397888</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>0.09387336926364175</v>
+        <v>0.09131365325303466</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>0.1155790652399402</v>
+        <v>0.1188981221413272</v>
       </c>
       <c r="G29" s="5" t="n">
-        <v>0.1673194096932216</v>
+        <v>0.1656097885989236</v>
       </c>
       <c r="H29" s="5" t="n">
-        <v>0.1227183054294035</v>
+        <v>0.1238066077226705</v>
       </c>
       <c r="I29" s="5" t="n">
-        <v>0.1160181170356479</v>
+        <v>0.1149793726906935</v>
       </c>
       <c r="J29" s="5" t="n">
-        <v>0.1527179646511128</v>
+        <v>0.1537697328716444</v>
       </c>
       <c r="K29" s="5" t="n">
-        <v>0.1456119879531752</v>
+        <v>0.1476788896274832</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>0.1220655360384813</v>
+        <v>0.1197526323796115</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>0.1174926022305788</v>
+        <v>0.1191483386813608</v>
       </c>
       <c r="N29" s="5" t="n">
-        <v>0.1501395177178928</v>
+        <v>0.1489857572178072</v>
       </c>
     </row>
     <row r="30">
@@ -1828,40 +1828,40 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>0.1893449281325758</v>
+        <v>0.178478730276999</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>0.2022522276838096</v>
+        <v>0.2093004415535017</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>0.2044345413184652</v>
+        <v>0.2111288076292383</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>0.2101372031363208</v>
+        <v>0.216109920190449</v>
       </c>
       <c r="G30" s="5" t="n">
-        <v>0.281011247141275</v>
+        <v>0.2769468120690114</v>
       </c>
       <c r="H30" s="5" t="n">
-        <v>0.222786168626524</v>
+        <v>0.2151716576229178</v>
       </c>
       <c r="I30" s="5" t="n">
-        <v>0.2128831490277394</v>
+        <v>0.2134821255813046</v>
       </c>
       <c r="J30" s="5" t="n">
-        <v>0.2160821787154768</v>
+        <v>0.2161690298306127</v>
       </c>
       <c r="K30" s="5" t="n">
-        <v>0.2285275098359725</v>
+        <v>0.2250788044550181</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>0.197818613237516</v>
+        <v>0.1956086428091333</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>0.1999395332456371</v>
+        <v>0.1975509520018247</v>
       </c>
       <c r="N30" s="5" t="n">
-        <v>0.2017870076288533</v>
+        <v>0.2030063131159186</v>
       </c>
     </row>
     <row r="31">
@@ -2143,7 +2143,7 @@
       </c>
       <c r="E6" s="6" t="inlineStr"/>
       <c r="F6" s="6" t="n">
-        <v>676</v>
+        <v>679</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0</v>
@@ -2155,19 +2155,19 @@
         <v>0</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>1708</v>
+        <v>1667</v>
       </c>
       <c r="K6" s="6" t="n">
         <v>0</v>
       </c>
       <c r="L6" s="6" t="n">
-        <v>806</v>
+        <v>811</v>
       </c>
       <c r="M6" s="6" t="n">
         <v>0</v>
       </c>
       <c r="N6" s="6" t="n">
-        <v>3175</v>
+        <v>3105</v>
       </c>
     </row>
     <row r="7">
@@ -2178,38 +2178,38 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>3769</v>
+        <v>3645</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>5721</v>
+        <v>5494</v>
       </c>
       <c r="E7" s="6" t="inlineStr"/>
       <c r="F7" s="6" t="n">
-        <v>5523</v>
+        <v>5726</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>4842</v>
+        <v>4856</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>5218</v>
+        <v>5290</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>6267</v>
+        <v>6867</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>7411</v>
+        <v>7394</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>6327</v>
+        <v>6015</v>
       </c>
       <c r="L7" s="6" t="n">
-        <v>7680</v>
+        <v>7214</v>
       </c>
       <c r="M7" s="6" t="n">
-        <v>7283</v>
+        <v>7517</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>11156</v>
+        <v>10923</v>
       </c>
     </row>
     <row r="8">
@@ -2316,34 +2316,34 @@
         <v>0</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>867</v>
+        <v>1015</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>1866</v>
+        <v>1851</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>884</v>
+        <v>902</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>3003</v>
+        <v>2316</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>2256</v>
+        <v>2035</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>6037</v>
+        <v>6279</v>
       </c>
       <c r="K10" s="6" t="n">
-        <v>888</v>
+        <v>921</v>
       </c>
       <c r="L10" s="6" t="n">
-        <v>4303</v>
+        <v>4834</v>
       </c>
       <c r="M10" s="6" t="n">
-        <v>4864</v>
+        <v>4455</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>9794</v>
+        <v>9731</v>
       </c>
     </row>
     <row r="11">
@@ -2355,37 +2355,37 @@
       </c>
       <c r="C11" s="6" t="inlineStr"/>
       <c r="D11" s="6" t="n">
-        <v>6269</v>
+        <v>6806</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>7299</v>
+        <v>7509</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>8932</v>
+        <v>8618</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>7636</v>
+        <v>7543</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>13294</v>
+        <v>14410</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>12305</v>
+        <v>12080</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>15154</v>
+        <v>14840</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>8144</v>
+        <v>8082</v>
       </c>
       <c r="L11" s="6" t="n">
-        <v>17577</v>
+        <v>18212</v>
       </c>
       <c r="M11" s="6" t="n">
-        <v>16488</v>
+        <v>15721</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>21335</v>
+        <v>21356</v>
       </c>
     </row>
     <row r="12">
@@ -2491,37 +2491,37 @@
         <v>0</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>909</v>
+        <v>961</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>849</v>
+        <v>836</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>1197</v>
+        <v>1634</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>5936</v>
+        <v>6506</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>1113</v>
+        <v>2144</v>
       </c>
       <c r="I14" s="6" t="n">
         <v>0</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>4618</v>
+        <v>4987</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>7208</v>
+        <v>7054</v>
       </c>
       <c r="L14" s="6" t="n">
-        <v>3206</v>
+        <v>3193</v>
       </c>
       <c r="M14" s="6" t="n">
-        <v>2502</v>
+        <v>2409</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>7567</v>
+        <v>7725</v>
       </c>
     </row>
     <row r="15">
@@ -2532,40 +2532,40 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>5639</v>
+        <v>5563</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>6776</v>
+        <v>6792</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>7469</v>
+        <v>7533</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>6908</v>
+        <v>6925</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>17731</v>
+        <v>17773</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>9654</v>
+        <v>9826</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>7695</v>
+        <v>6613</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>12071</v>
+        <v>12420</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>19985</v>
+        <v>20183</v>
       </c>
       <c r="L15" s="6" t="n">
-        <v>13197</v>
+        <v>13292</v>
       </c>
       <c r="M15" s="6" t="n">
-        <v>11501</v>
+        <v>11881</v>
       </c>
       <c r="N15" s="6" t="n">
-        <v>16595</v>
+        <v>17024</v>
       </c>
     </row>
     <row r="16">
@@ -2674,34 +2674,34 @@
         <v>0</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>767</v>
+        <v>768</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>1379</v>
+        <v>1835</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>4180</v>
+        <v>3883</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>1051</v>
+        <v>1017</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>2156</v>
+        <v>2174</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>5658</v>
+        <v>5922</v>
       </c>
       <c r="K18" s="6" t="n">
-        <v>4709</v>
+        <v>4562</v>
       </c>
       <c r="L18" s="6" t="n">
-        <v>2984</v>
+        <v>3040</v>
       </c>
       <c r="M18" s="6" t="n">
-        <v>4179</v>
+        <v>4102</v>
       </c>
       <c r="N18" s="6" t="n">
-        <v>9054</v>
+        <v>8864</v>
       </c>
     </row>
     <row r="19">
@@ -2712,40 +2712,40 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>3708</v>
+        <v>3508</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>6704</v>
+        <v>6571</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>6148</v>
+        <v>6046</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>7281</v>
+        <v>7202</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>14308</v>
+        <v>13204</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>9385</v>
+        <v>9072</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>12341</v>
+        <v>13505</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>12382</v>
+        <v>12414</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>14890</v>
+        <v>15287</v>
       </c>
       <c r="L19" s="6" t="n">
-        <v>12616</v>
+        <v>12680</v>
       </c>
       <c r="M19" s="6" t="n">
-        <v>15768</v>
+        <v>15948</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>17616</v>
+        <v>17055</v>
       </c>
     </row>
     <row r="20">
@@ -2861,25 +2861,25 @@
         <v>0</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>2055</v>
+        <v>1972</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>1075</v>
+        <v>1053</v>
       </c>
       <c r="J22" s="6" t="n">
-        <v>930</v>
+        <v>880</v>
       </c>
       <c r="K22" s="6" t="n">
         <v>0</v>
       </c>
       <c r="L22" s="6" t="n">
-        <v>2155</v>
+        <v>2969</v>
       </c>
       <c r="M22" s="6" t="n">
-        <v>1097</v>
+        <v>1095</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>1615</v>
+        <v>1716</v>
       </c>
     </row>
     <row r="23">
@@ -2890,38 +2890,38 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>3896</v>
+        <v>3947</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>5476</v>
+        <v>5613</v>
       </c>
       <c r="E23" s="6" t="inlineStr"/>
       <c r="F23" s="6" t="n">
-        <v>3115</v>
+        <v>3268</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>4506</v>
+        <v>5360</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>10235</v>
+        <v>10426</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>8302</v>
+        <v>8225</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>4656</v>
+        <v>4767</v>
       </c>
       <c r="K23" s="6" t="n">
-        <v>6340</v>
+        <v>6463</v>
       </c>
       <c r="L23" s="6" t="n">
-        <v>11792</v>
+        <v>11851</v>
       </c>
       <c r="M23" s="6" t="n">
-        <v>8127</v>
+        <v>8938</v>
       </c>
       <c r="N23" s="6" t="n">
-        <v>6415</v>
+        <v>6111</v>
       </c>
     </row>
     <row r="24">
@@ -3024,7 +3024,7 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>949</v>
+        <v>1855</v>
       </c>
       <c r="D26" s="6" t="n">
         <v>0</v>
@@ -3033,31 +3033,31 @@
         <v>0</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>2558</v>
+        <v>2488</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>1066</v>
+        <v>1082</v>
       </c>
       <c r="I26" s="6" t="n">
         <v>0</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>2453</v>
+        <v>2641</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>2816</v>
+        <v>2835</v>
       </c>
       <c r="L26" s="6" t="n">
-        <v>2160</v>
+        <v>2151</v>
       </c>
       <c r="M26" s="6" t="n">
-        <v>1372</v>
+        <v>1705</v>
       </c>
       <c r="N26" s="6" t="n">
-        <v>5905</v>
+        <v>6397</v>
       </c>
     </row>
     <row r="27">
@@ -3068,40 +3068,40 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>7673</v>
+        <v>7642</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>6475</v>
+        <v>6470</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>4999</v>
+        <v>5012</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>7537</v>
+        <v>7622</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>6806</v>
+        <v>6938</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>8525</v>
+        <v>8644</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>9582</v>
+        <v>9122</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>7530</v>
+        <v>7513</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>12313</v>
+        <v>11595</v>
       </c>
       <c r="L27" s="6" t="n">
-        <v>12619</v>
+        <v>11811</v>
       </c>
       <c r="M27" s="6" t="n">
-        <v>11755</v>
+        <v>11592</v>
       </c>
       <c r="N27" s="6" t="n">
-        <v>12915</v>
+        <v>13359</v>
       </c>
     </row>
     <row r="28">
@@ -3207,37 +3207,37 @@
         <v>0</v>
       </c>
       <c r="D30" s="6" t="n">
-        <v>2088</v>
+        <v>2078</v>
       </c>
       <c r="E30" s="6" t="n">
-        <v>1713</v>
+        <v>1731</v>
       </c>
       <c r="F30" s="6" t="n">
-        <v>912</v>
+        <v>0</v>
       </c>
       <c r="G30" s="6" t="n">
-        <v>10063</v>
+        <v>9468</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>6781</v>
+        <v>6595</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>4569</v>
+        <v>4552</v>
       </c>
       <c r="J30" s="6" t="n">
-        <v>6775</v>
+        <v>6613</v>
       </c>
       <c r="K30" s="6" t="n">
-        <v>11071</v>
+        <v>10929</v>
       </c>
       <c r="L30" s="6" t="n">
-        <v>11823</v>
+        <v>11169</v>
       </c>
       <c r="M30" s="6" t="n">
-        <v>7818</v>
+        <v>7437</v>
       </c>
       <c r="N30" s="6" t="n">
-        <v>8564</v>
+        <v>8085</v>
       </c>
     </row>
     <row r="31">
@@ -3248,40 +3248,40 @@
         </is>
       </c>
       <c r="C31" s="6" t="n">
-        <v>5445</v>
+        <v>5449</v>
       </c>
       <c r="D31" s="6" t="n">
-        <v>11411</v>
+        <v>11399</v>
       </c>
       <c r="E31" s="6" t="n">
-        <v>9258</v>
+        <v>9359</v>
       </c>
       <c r="F31" s="6" t="n">
-        <v>8052</v>
+        <v>7576</v>
       </c>
       <c r="G31" s="6" t="n">
-        <v>22539</v>
+        <v>22040</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>20420</v>
+        <v>21141</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>16950</v>
+        <v>16165</v>
       </c>
       <c r="J31" s="6" t="n">
-        <v>18319</v>
+        <v>17750</v>
       </c>
       <c r="K31" s="6" t="n">
-        <v>25363</v>
+        <v>24336</v>
       </c>
       <c r="L31" s="6" t="n">
-        <v>28013</v>
+        <v>28720</v>
       </c>
       <c r="M31" s="6" t="n">
-        <v>22138</v>
+        <v>21705</v>
       </c>
       <c r="N31" s="6" t="n">
-        <v>21364</v>
+        <v>21102</v>
       </c>
     </row>
     <row r="32">
@@ -3384,7 +3384,7 @@
         </is>
       </c>
       <c r="C34" s="6" t="n">
-        <v>1919</v>
+        <v>2126</v>
       </c>
       <c r="D34" s="6" t="n">
         <v>0</v>
@@ -3393,31 +3393,31 @@
         <v>0</v>
       </c>
       <c r="F34" s="6" t="n">
-        <v>1962</v>
+        <v>1342</v>
       </c>
       <c r="G34" s="6" t="n">
-        <v>3437</v>
+        <v>3470</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>3227</v>
+        <v>3320</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>3683</v>
+        <v>3637</v>
       </c>
       <c r="J34" s="6" t="n">
-        <v>10742</v>
+        <v>11170</v>
       </c>
       <c r="K34" s="6" t="n">
-        <v>7396</v>
+        <v>7291</v>
       </c>
       <c r="L34" s="6" t="n">
-        <v>4477</v>
+        <v>4446</v>
       </c>
       <c r="M34" s="6" t="n">
-        <v>5420</v>
+        <v>5339</v>
       </c>
       <c r="N34" s="6" t="n">
-        <v>13848</v>
+        <v>14748</v>
       </c>
     </row>
     <row r="35">
@@ -3428,40 +3428,40 @@
         </is>
       </c>
       <c r="C35" s="6" t="n">
-        <v>10240</v>
+        <v>10853</v>
       </c>
       <c r="D35" s="6" t="n">
-        <v>6944</v>
+        <v>6270</v>
       </c>
       <c r="E35" s="6" t="n">
-        <v>5344</v>
+        <v>5386</v>
       </c>
       <c r="F35" s="6" t="n">
-        <v>7575</v>
+        <v>7451</v>
       </c>
       <c r="G35" s="6" t="n">
-        <v>14806</v>
+        <v>14505</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>13543</v>
+        <v>13438</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>16953</v>
+        <v>17497</v>
       </c>
       <c r="J35" s="6" t="n">
-        <v>23094</v>
+        <v>22806</v>
       </c>
       <c r="K35" s="6" t="n">
-        <v>21018</v>
+        <v>21859</v>
       </c>
       <c r="L35" s="6" t="n">
-        <v>17126</v>
+        <v>16746</v>
       </c>
       <c r="M35" s="6" t="n">
-        <v>20251</v>
+        <v>19301</v>
       </c>
       <c r="N35" s="6" t="n">
-        <v>27348</v>
+        <v>27304</v>
       </c>
     </row>
     <row r="36">
@@ -3564,40 +3564,40 @@
         </is>
       </c>
       <c r="C38" s="6" t="n">
-        <v>8643</v>
+        <v>8993</v>
       </c>
       <c r="D38" s="6" t="n">
-        <v>12297</v>
+        <v>12905</v>
       </c>
       <c r="E38" s="6" t="n">
-        <v>11402</v>
+        <v>11091</v>
       </c>
       <c r="F38" s="6" t="n">
-        <v>19547</v>
+        <v>20108</v>
       </c>
       <c r="G38" s="6" t="n">
-        <v>38638</v>
+        <v>38243</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>34303</v>
+        <v>34608</v>
       </c>
       <c r="I38" s="6" t="n">
-        <v>31019</v>
+        <v>30741</v>
       </c>
       <c r="J38" s="6" t="n">
-        <v>54557</v>
+        <v>54933</v>
       </c>
       <c r="K38" s="6" t="n">
-        <v>52056</v>
+        <v>52795</v>
       </c>
       <c r="L38" s="6" t="n">
-        <v>51963</v>
+        <v>50978</v>
       </c>
       <c r="M38" s="6" t="n">
-        <v>45684</v>
+        <v>46327</v>
       </c>
       <c r="N38" s="6" t="n">
-        <v>79028</v>
+        <v>78420</v>
       </c>
     </row>
     <row r="39">
@@ -3608,40 +3608,40 @@
         </is>
       </c>
       <c r="C39" s="6" t="n">
-        <v>23967</v>
+        <v>22591</v>
       </c>
       <c r="D39" s="6" t="n">
-        <v>29563</v>
+        <v>30593</v>
       </c>
       <c r="E39" s="6" t="n">
-        <v>24830</v>
+        <v>25643</v>
       </c>
       <c r="F39" s="6" t="n">
-        <v>35539</v>
+        <v>36549</v>
       </c>
       <c r="G39" s="6" t="n">
-        <v>64892</v>
+        <v>63953</v>
       </c>
       <c r="H39" s="6" t="n">
-        <v>62275</v>
+        <v>60147</v>
       </c>
       <c r="I39" s="6" t="n">
-        <v>56917</v>
+        <v>57077</v>
       </c>
       <c r="J39" s="6" t="n">
-        <v>77193</v>
+        <v>77224</v>
       </c>
       <c r="K39" s="6" t="n">
-        <v>81699</v>
+        <v>80466</v>
       </c>
       <c r="L39" s="6" t="n">
-        <v>84211</v>
+        <v>83270</v>
       </c>
       <c r="M39" s="6" t="n">
-        <v>77741</v>
+        <v>76812</v>
       </c>
       <c r="N39" s="6" t="n">
-        <v>106213</v>
+        <v>106855</v>
       </c>
     </row>
     <row r="40">
